--- a/techniqo/data_new_ticker/DBL.xlsx
+++ b/techniqo/data_new_ticker/DBL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1013"/>
+  <dimension ref="A1:G1015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35841,6 +35841,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1014" t="n">
+        <v>380.85</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>376</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>377.75</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>149327</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1015" t="n">
+        <v>379.95</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>383.9</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>372.1</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>379.05</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>175770</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/DBL.xlsx
+++ b/techniqo/data_new_ticker/DBL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1015"/>
+  <dimension ref="A1:G1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35891,6 +35891,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1016" t="n">
+        <v>374</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>378.9</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>97750</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1017" t="n">
+        <v>376</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>377.65</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>354.1</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>357.8</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>181974</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
